--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R-Proyectos\LibroAlerta1\Divipola\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R-Proyectos\LibroAlerta1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{804F1558-08BD-4764-8B1D-1BBB61340E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A763367C-FA72-48BD-B357-81D5340F1B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E0DEE908-205D-4FA0-8A0C-85C81D1BCF3C}"/>
   </bookViews>
@@ -34541,7 +34541,7 @@
   <dimension ref="A1:J1263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -76223,5 +76223,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>